--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,31 +450,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입력: 이름, 이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력: 아이디, 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력: 이름, 이메일, 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력: 아이디, 이름, 비밀번호, 비밀번호확인, 이메일, 성별, 부수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력: 참가자, 신청자, 신청자연락처, 건의사항, 게시물 비번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 이전/이후 변경되는 기술</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>show_userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비번찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 자세히 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록(랭킹순+이름순 정렬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,12 +754,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -708,6 +764,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1011,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1021,56 +1084,56 @@
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="59.58203125" customWidth="1"/>
-    <col min="5" max="5" width="28.08203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="28.08203125" style="22" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="26.08203125" customWidth="1"/>
     <col min="10" max="10" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="8"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="8"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="23"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1143,7 @@
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1104,7 +1167,7 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
@@ -1125,7 +1188,7 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
@@ -1152,11 +1215,11 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>113</v>
+      <c r="E7" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="F7" t="s">
         <v>92</v>
@@ -1176,11 +1239,11 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>109</v>
+      <c r="E8" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="F8" t="s">
         <v>90</v>
@@ -1200,11 +1263,11 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>108</v>
+      <c r="E9" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="F9" t="s">
         <v>90</v>
@@ -1217,11 +1280,11 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>110</v>
+      <c r="E10" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
@@ -1234,11 +1297,11 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>111</v>
+      <c r="E11" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -1248,11 +1311,14 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="25" t="s">
         <v>81</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
@@ -1262,11 +1328,14 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>82</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -1276,11 +1345,14 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>114</v>
+      <c r="D14" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -1290,14 +1362,14 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>112</v>
+      <c r="E15" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="F15" t="s">
         <v>91</v>
@@ -1307,11 +1379,14 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>114</v>
+      <c r="D16" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -1324,8 +1399,11 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="28" t="s">
         <v>38</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="F17" t="s">
         <v>91</v>
@@ -1338,8 +1416,11 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="28" t="s">
         <v>58</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="F18" t="s">
         <v>91</v>
@@ -1352,8 +1433,11 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="28" t="s">
         <v>40</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="F19" t="s">
         <v>91</v>
@@ -1372,6 +1456,9 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
+      <c r="E20" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F20" t="s">
         <v>92</v>
       </c>
@@ -1386,6 +1473,9 @@
       <c r="D21" t="s">
         <v>56</v>
       </c>
+      <c r="E21" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="F21" t="s">
         <v>93</v>
       </c>
@@ -1400,6 +1490,9 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
+      <c r="E22" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="F22" t="s">
         <v>93</v>
       </c>
@@ -1414,6 +1507,9 @@
       <c r="D23" t="s">
         <v>28</v>
       </c>
+      <c r="E23" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="F23" t="s">
         <v>91</v>
       </c>
@@ -1428,6 +1524,9 @@
       <c r="D24" t="s">
         <v>54</v>
       </c>
+      <c r="E24" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="F24" t="s">
         <v>93</v>
       </c>
@@ -1442,6 +1541,9 @@
       <c r="D25" t="s">
         <v>57</v>
       </c>
+      <c r="E25" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="F25" t="s">
         <v>92</v>
       </c>
@@ -1459,6 +1561,9 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
+      <c r="E26" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F26" t="s">
         <v>92</v>
       </c>
@@ -1473,6 +1578,9 @@
       <c r="D27" t="s">
         <v>66</v>
       </c>
+      <c r="E27" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="F27" t="s">
         <v>93</v>
       </c>
@@ -1487,6 +1595,9 @@
       <c r="D28" t="s">
         <v>65</v>
       </c>
+      <c r="E28" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="F28" t="s">
         <v>93</v>
       </c>
@@ -1501,6 +1612,9 @@
       <c r="D29" t="s">
         <v>34</v>
       </c>
+      <c r="E29" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="F29" t="s">
         <v>91</v>
       </c>
@@ -1515,6 +1629,9 @@
       <c r="D30" t="s">
         <v>64</v>
       </c>
+      <c r="E30" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="F30" t="s">
         <v>93</v>
       </c>
@@ -1529,6 +1646,9 @@
       <c r="D31" t="s">
         <v>68</v>
       </c>
+      <c r="E31" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="F31" t="s">
         <v>92</v>
       </c>
@@ -1546,6 +1666,9 @@
       <c r="D32" t="s">
         <v>59</v>
       </c>
+      <c r="E32" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="F32" t="s">
         <v>92</v>
       </c>
@@ -1560,6 +1683,9 @@
       <c r="D33" t="s">
         <v>62</v>
       </c>
+      <c r="E33" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="F33" t="s">
         <v>92</v>
       </c>
@@ -1577,6 +1703,9 @@
       <c r="D34" t="s">
         <v>74</v>
       </c>
+      <c r="E34" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F34" t="s">
         <v>92</v>
       </c>
@@ -1591,6 +1720,9 @@
       <c r="D35" t="s">
         <v>75</v>
       </c>
+      <c r="E35" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="F35" t="s">
         <v>93</v>
       </c>
@@ -1605,6 +1737,9 @@
       <c r="D36" t="s">
         <v>76</v>
       </c>
+      <c r="E36" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="F36" t="s">
         <v>93</v>
       </c>
@@ -1619,6 +1754,9 @@
       <c r="D37" t="s">
         <v>77</v>
       </c>
+      <c r="E37" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="F37" t="s">
         <v>91</v>
       </c>
@@ -1633,6 +1771,9 @@
       <c r="D38" t="s">
         <v>78</v>
       </c>
+      <c r="E38" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="F38" t="s">
         <v>93</v>
       </c>
@@ -1647,6 +1788,9 @@
       <c r="D39" t="s">
         <v>79</v>
       </c>
+      <c r="E39" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="F39" t="s">
         <v>92</v>
       </c>
@@ -1664,6 +1808,9 @@
       <c r="D40" t="s">
         <v>41</v>
       </c>
+      <c r="E40" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="F40" t="s">
         <v>92</v>
       </c>
@@ -1681,6 +1828,9 @@
       <c r="D41" s="21" t="s">
         <v>21</v>
       </c>
+      <c r="E41" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="F41" t="s">
         <v>91</v>
       </c>
@@ -1693,7 +1843,7 @@
       <c r="D42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="26"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1704,7 +1854,7 @@
       <c r="D43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1715,7 +1865,7 @@
       <c r="D44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1726,7 +1876,7 @@
       <c r="D45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="26"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1737,7 +1887,7 @@
       <c r="D46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="26"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1748,7 +1898,7 @@
       <c r="D47" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="26"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,179 +206,359 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>login &gt; loginAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_delete &gt; notice_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_update &gt; notice_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_write &gt; notice_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeSearch &gt; noticeSearchAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preModify &gt; preModifyAction &gt;  myinfoModify &gt; myinfoModifyAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지게시판 &gt; 게시물 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹게시판 &gt; 유저 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankSearch &gt; rankSearchAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register &gt; registerAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_delete &gt; result_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_update &gt; result_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_write &gt; result_wrtieAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과게시판 &gt; 게시물검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultSearch &gt; resultSearchAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 &gt; 글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 &gt; 글수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 &gt; 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 &gt; 글삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 &gt; 게시물검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_write &gt; review_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_update &gt; review_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_delete &gt; review_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewSearch &gt; reviewSearchAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 팀원찾기 &gt; 팀원검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">team </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamSearchAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 팀원찾기 &gt; 유저정보보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 페이지 공통사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 사람 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 안된사람만 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 사람만 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자만 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원정보관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시글관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 참가신청관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 이전/이후 변경되는 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비번찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 자세히 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록(랭킹순+이름순 정렬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지게시판&gt;글 상세보기&gt;참가자명단보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt; 유저목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt;유저목록&gt;유저선택, 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt;유저목록&gt;결과반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>join_view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>joinAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login &gt; loginAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>member_popup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>memberSearchAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberChoiceAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>memberAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memberChoiceAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_delete &gt; notice_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_update &gt; notice_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_write &gt; notice_writeAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeSearch &gt; noticeSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preModify &gt; preModifyAction &gt;  myinfoModify &gt; myinfoModifyAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지게시판 &gt; 게시물 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹게시판 &gt; 유저 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankSearch &gt; rankSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register &gt; registerAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_delete &gt; result_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_update &gt; result_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_write &gt; result_wrtieAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과게시판 &gt; 게시물검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultSearch &gt; resultSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 게시물검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_write &gt; review_writeAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_update &gt; review_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_delete &gt; review_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewSearch &gt; reviewSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 팀원찾기 &gt; 팀원검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">team </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teamSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 팀원찾기 &gt; 유저정보보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 페이지 공통사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lx</t>
+    <t>참가신청페이지&gt;유저목록&gt;유저검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금 내역 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 선택 가능/불가능 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 유저를 팀원 명단에 반영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,147 +570,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 사람 접근 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 안된사람만 접근 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 사람만 접근 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자만 접근 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 회원정보관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시글관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 참가신청관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 이전/이후 변경되는 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비번찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 자세히 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록(랭킹순+이름순 정렬)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
+    <t>mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join &gt; joinAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,25 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,7 +761,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -753,24 +784,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1072,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1084,56 +1117,56 @@
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="59.58203125" customWidth="1"/>
-    <col min="5" max="5" width="28.08203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="28.08203125" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="26.08203125" customWidth="1"/>
     <col min="10" max="10" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="8"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="8"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1143,21 +1176,21 @@
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>98</v>
+      <c r="I4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -1167,18 +1200,18 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1188,21 +1221,21 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>87</v>
+      <c r="E6" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>95</v>
+      <c r="I6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -1215,21 +1248,21 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>108</v>
+      <c r="E7" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>96</v>
+      <c r="I7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1239,21 +1272,21 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>110</v>
+      <c r="D8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>97</v>
+      <c r="I8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -1263,14 +1296,14 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>111</v>
+      <c r="E9" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1280,14 +1313,14 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>112</v>
+      <c r="E10" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1297,99 +1330,99 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>113</v>
+      <c r="D11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>114</v>
+      <c r="D12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>115</v>
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>116</v>
+      <c r="C14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>117</v>
+      <c r="E15" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>116</v>
+      <c r="D16" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1399,14 +1432,14 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>118</v>
+      <c r="E17" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1416,14 +1449,14 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>119</v>
+      <c r="D18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1433,14 +1466,14 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>120</v>
+      <c r="E19" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1456,11 +1489,11 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>121</v>
+      <c r="E20" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1471,13 +1504,13 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>122</v>
+        <v>50</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1488,13 +1521,13 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>123</v>
+        <v>49</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1507,11 +1540,11 @@
       <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>124</v>
+      <c r="E23" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1522,30 +1555,30 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>125</v>
+        <v>48</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>60</v>
+      <c r="C25" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>115</v>
+        <v>51</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1555,102 +1588,102 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>121</v>
+      <c r="E26" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>122</v>
+        <v>60</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>123</v>
+        <v>59</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>124</v>
+      <c r="E29" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>125</v>
+        <v>58</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>67</v>
+      <c r="C31" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1660,37 +1693,37 @@
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>126</v>
+        <v>53</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>61</v>
+      <c r="C33" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>115</v>
+        <v>56</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1701,282 +1734,406 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>121</v>
+        <v>68</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="D35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>122</v>
+      <c r="E35" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>123</v>
+      <c r="E36" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>124</v>
+      <c r="E37" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
         <v>72</v>
       </c>
-      <c r="D38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>125</v>
+      <c r="E38" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
         <v>73</v>
       </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>115</v>
+      <c r="E39" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="27">
+        <v>37</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="27">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="E42" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="27">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
-        <v>38</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
+      <c r="E43" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="27">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="27">
+        <v>41</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="27">
+        <v>42</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="27">
+        <v>43</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="27">
+        <v>44</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="27">
+        <v>45</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="27">
+        <v>46</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="27">
         <v>47</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>39</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="27">
         <v>48</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>40</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
-        <v>41</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="27">
+        <v>49</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="27">
         <v>50</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
-        <v>42</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
-        <v>43</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="1">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="1">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="1">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="1">
-        <v>49</v>
-      </c>
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="1">
-        <v>50</v>
-      </c>
-      <c r="F54" t="s">
-        <v>107</v>
-      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="27"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="27"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="27"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="27"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="27"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="27"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="27"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="27"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -791,18 +791,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1124,49 +1124,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="8"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="8"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -1364,7 +1364,7 @@
       <c r="C13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="22" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1696,7 +1696,7 @@
       <c r="C32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="22" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="20" t="s">
@@ -1713,7 +1713,7 @@
       <c r="C33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E33" s="20" t="s">
@@ -1838,10 +1838,10 @@
       <c r="C40" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="24" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -1850,7 +1850,7 @@
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="27">
+      <c r="A41" s="25">
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -1862,7 +1862,7 @@
       <c r="D41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="24" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -1870,8 +1870,8 @@
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="27">
+    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="25">
         <v>38</v>
       </c>
       <c r="B42" s="9"/>
@@ -1881,7 +1881,7 @@
       <c r="D42" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="24" t="s">
         <v>133</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -1889,8 +1889,8 @@
       </c>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="27">
+    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="25">
         <v>39</v>
       </c>
       <c r="B43" s="9"/>
@@ -1900,7 +1900,7 @@
       <c r="D43" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="24" t="s">
         <v>134</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -1908,8 +1908,8 @@
       </c>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="27">
+    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="25">
         <v>40</v>
       </c>
       <c r="B44" s="9"/>
@@ -1919,14 +1919,14 @@
       <c r="D44" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="27">
+    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="25">
         <v>41</v>
       </c>
       <c r="B45" s="9"/>
@@ -1936,14 +1936,14 @@
       <c r="D45" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="26"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="27">
+    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="25">
         <v>42</v>
       </c>
       <c r="B46" s="9"/>
@@ -1953,7 +1953,7 @@
       <c r="D46" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="24" t="s">
         <v>135</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -1961,8 +1961,8 @@
       </c>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="27">
+    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="25">
         <v>43</v>
       </c>
       <c r="B47" s="9"/>
@@ -1972,29 +1972,29 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="27">
+    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="25">
         <v>44</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="26"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="27">
+    <row r="49" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="25">
         <v>45</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="27">
+      <c r="A50" s="25">
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -2006,13 +2006,13 @@
       <c r="D50" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="26"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="27">
+      <c r="A51" s="25">
         <v>47</v>
       </c>
       <c r="B51" s="9"/>
@@ -2022,13 +2022,13 @@
       <c r="D51" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="26"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="27">
+      <c r="A52" s="25">
         <v>48</v>
       </c>
       <c r="B52" s="9"/>
@@ -2038,13 +2038,13 @@
       <c r="D52" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="26"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="27">
+      <c r="A53" s="25">
         <v>49</v>
       </c>
       <c r="B53" s="9"/>
@@ -2054,85 +2054,85 @@
       <c r="D53" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="26"/>
+      <c r="E53" s="24"/>
       <c r="F53" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="27">
+      <c r="A54" s="25">
         <v>50</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="26"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="27"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="26"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="27"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="26"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="27"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="26"/>
+      <c r="E57" s="24"/>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="27"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="26"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="27"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="26"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="27"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="26"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="27"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="26"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="27"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="26"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="9"/>
     </row>
   </sheetData>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="138">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,14 +235,6 @@
   </si>
   <si>
     <t>공지게시판 &gt; 게시물 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랭킹게시판 &gt; 유저 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankSearch &gt; rankSearchAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1107,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1180,17 +1172,17 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -1201,17 +1193,17 @@
         <v>45</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1222,20 +1214,20 @@
         <v>46</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -1252,17 +1244,17 @@
         <v>20</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1276,17 +1268,17 @@
         <v>47</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -1300,10 +1292,10 @@
         <v>43</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1317,10 +1309,10 @@
         <v>44</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1331,13 +1323,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1348,13 +1340,13 @@
         <v>18</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -1362,16 +1354,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="E13" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -1379,16 +1371,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1402,10 +1394,10 @@
         <v>21</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -1416,13 +1408,13 @@
         <v>35</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1436,10 +1428,10 @@
         <v>38</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1453,10 +1445,10 @@
         <v>52</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1470,10 +1462,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1490,10 +1482,10 @@
         <v>27</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1507,10 +1499,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1524,10 +1516,10 @@
         <v>49</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1541,10 +1533,10 @@
         <v>28</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1558,10 +1550,10 @@
         <v>48</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1575,10 +1567,10 @@
         <v>51</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1595,10 +1587,10 @@
         <v>33</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1609,13 +1601,13 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1626,13 +1618,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1646,10 +1638,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1660,13 +1652,13 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1674,16 +1666,16 @@
         <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1700,28 +1692,18 @@
         <v>53</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" t="s">
-        <v>86</v>
-      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -1734,13 +1716,13 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1748,16 +1730,16 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1765,16 +1747,16 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1782,16 +1764,16 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1799,16 +1781,16 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1816,16 +1798,16 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1842,10 +1824,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G40" s="9"/>
     </row>
@@ -1854,19 +1836,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G41" s="9"/>
     </row>
@@ -1876,16 +1858,16 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G42" s="9"/>
     </row>
@@ -1895,16 +1877,16 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E43" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="G43" s="9"/>
     </row>
@@ -1914,14 +1896,14 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G44" s="9"/>
     </row>
@@ -1931,14 +1913,14 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G45" s="9"/>
     </row>
@@ -1948,16 +1930,16 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G46" s="9"/>
     </row>
@@ -1998,17 +1980,17 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2017,14 +1999,14 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2033,14 +2015,14 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2049,14 +2031,14 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2068,7 +2050,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="24"/>
       <c r="F54" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="132">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>noticeSearch &gt; noticeSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>preModify &gt; preModifyAction &gt;  myinfoModify &gt; myinfoModifyAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지게시판 &gt; 게시물 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>register &gt; registerAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,14 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결과게시판 &gt; 게시물검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultSearch &gt; resultSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>후기게시판 &gt; 글쓰기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>후기게시판 &gt; 게시물검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>review</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +279,6 @@
   </si>
   <si>
     <t>review_delete &gt; review_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewSearch &gt; reviewSearchAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1099,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1172,17 +1148,17 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -1193,17 +1169,17 @@
         <v>45</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1214,20 +1190,20 @@
         <v>46</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -1244,17 +1220,17 @@
         <v>20</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1268,17 +1244,17 @@
         <v>47</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -1292,10 +1268,10 @@
         <v>43</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1309,10 +1285,10 @@
         <v>44</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1323,13 +1299,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1340,13 +1316,13 @@
         <v>18</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -1354,16 +1330,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -1371,16 +1347,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1394,10 +1370,10 @@
         <v>21</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -1408,13 +1384,13 @@
         <v>35</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1428,10 +1404,10 @@
         <v>38</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1442,13 +1418,13 @@
         <v>37</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1462,10 +1438,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1482,10 +1458,10 @@
         <v>27</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1499,10 +1475,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1516,10 +1492,10 @@
         <v>49</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1533,10 +1509,10 @@
         <v>28</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1550,28 +1526,17 @@
         <v>48</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
-      </c>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -1587,10 +1552,10 @@
         <v>33</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1601,13 +1566,13 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1618,13 +1583,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1638,10 +1603,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1652,31 +1617,20 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" t="s">
-        <v>84</v>
-      </c>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -1689,13 +1643,13 @@
         <v>5</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1716,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1730,16 +1684,16 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1747,16 +1701,16 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1764,16 +1718,16 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1781,34 +1735,22 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -1824,10 +1766,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G40" s="9"/>
     </row>
@@ -1836,19 +1778,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="G41" s="9"/>
     </row>
@@ -1858,16 +1800,16 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>131</v>
-      </c>
       <c r="F42" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G42" s="9"/>
     </row>
@@ -1877,16 +1819,16 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>132</v>
-      </c>
       <c r="F43" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G43" s="9"/>
     </row>
@@ -1896,14 +1838,14 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G44" s="9"/>
     </row>
@@ -1913,14 +1855,14 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G45" s="9"/>
     </row>
@@ -1930,16 +1872,16 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G46" s="9"/>
     </row>
@@ -1980,17 +1922,17 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -1999,14 +1941,14 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2015,14 +1957,14 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2031,14 +1973,14 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2050,7 +1992,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="24"/>
       <c r="F54" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,26 +366,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자페이지 &gt; 회원정보관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자페이지 &gt; 게시글관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin_bbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자페이지 &gt; 참가신청관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin_join</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,6 +531,42 @@
   </si>
   <si>
     <t>join &gt; joinAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 통계관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이력조회, 탈퇴, 사용정지(회원관리에 관한 모든 내용 추적, 확인 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 추가, 삭제, 수정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모임참가자 추가, 삭제, 수정, 입금확인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">날짜별, 종류별, 유입경로 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1220,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
         <v>78</v>
@@ -1244,7 +1268,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -1268,7 +1292,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>76</v>
@@ -1285,7 +1309,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1302,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1319,7 +1343,7 @@
         <v>67</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -1336,7 +1360,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -1350,10 +1374,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1370,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
@@ -1384,10 +1408,10 @@
         <v>35</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1404,7 +1428,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
         <v>77</v>
@@ -1421,7 +1445,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
         <v>77</v>
@@ -1438,7 +1462,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
         <v>77</v>
@@ -1458,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
         <v>78</v>
@@ -1475,7 +1499,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
         <v>79</v>
@@ -1492,7 +1516,7 @@
         <v>49</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
         <v>79</v>
@@ -1509,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
         <v>77</v>
@@ -1526,7 +1550,7 @@
         <v>48</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
         <v>79</v>
@@ -1552,7 +1576,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
         <v>78</v>
@@ -1569,7 +1593,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
         <v>79</v>
@@ -1586,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
         <v>79</v>
@@ -1603,7 +1627,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
         <v>77</v>
@@ -1620,7 +1644,7 @@
         <v>54</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
         <v>79</v>
@@ -1646,7 +1670,7 @@
         <v>52</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
         <v>78</v>
@@ -1673,7 +1697,7 @@
         <v>61</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
         <v>78</v>
@@ -1690,7 +1714,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
@@ -1707,7 +1731,7 @@
         <v>63</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>79</v>
@@ -1724,7 +1748,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
         <v>77</v>
@@ -1741,7 +1765,7 @@
         <v>65</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F38" t="s">
         <v>79</v>
@@ -1766,7 +1790,7 @@
         <v>41</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>78</v>
@@ -1784,10 +1808,10 @@
         <v>71</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>77</v>
@@ -1800,16 +1824,16 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G42" s="9"/>
     </row>
@@ -1819,16 +1843,16 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G43" s="9"/>
     </row>
@@ -1838,14 +1862,14 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G44" s="9"/>
     </row>
@@ -1855,14 +1879,14 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G45" s="9"/>
     </row>
@@ -1872,16 +1896,16 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G46" s="9"/>
     </row>
@@ -1932,7 +1956,7 @@
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -1941,14 +1965,16 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="F51" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -1957,14 +1983,16 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -1973,14 +2001,16 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>135</v>
+      </c>
       <c r="F53" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -1989,10 +2019,8 @@
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="24"/>
       <c r="F54" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2014,9 +2042,15 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="25"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="24"/>
+      <c r="C57" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,31 +542,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자페이지 &gt; 모임관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자페이지 &gt; 통계관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원이력조회, 탈퇴, 사용정지(회원관리에 관한 모든 내용 추적, 확인 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 추가, 삭제, 수정 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">모임참가자 추가, 삭제, 수정, 입금확인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin_stats</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">날짜별, 종류별, 유입경로 </t>
+    <t>admin_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_menubar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자페이지 &gt; 회원관리 &gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinPopup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,17 +1109,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="57.08203125" customWidth="1"/>
     <col min="4" max="4" width="59.58203125" customWidth="1"/>
     <col min="5" max="5" width="28.08203125" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
@@ -1948,15 +1960,8 @@
       <c r="B50" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="9" t="s">
-        <v>90</v>
+      <c r="D50" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -1964,17 +1969,8 @@
         <v>47</v>
       </c>
       <c r="B51" s="9"/>
-      <c r="C51" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>90</v>
+      <c r="D51" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -1983,14 +1979,12 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>134</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E52" s="24"/>
       <c r="F52" s="9" t="s">
         <v>90</v>
       </c>
@@ -2001,14 +1995,12 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>135</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E53" s="24"/>
       <c r="F53" s="9" t="s">
         <v>90</v>
       </c>
@@ -2018,7 +2010,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="24"/>
       <c r="F54" s="9" t="s">
         <v>90</v>
       </c>
@@ -2026,62 +2021,70 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="25"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="E57" s="24"/>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="25"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="E58" s="24"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="25"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="E59" s="24"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="25"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="E60" s="24"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="25"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="E61" s="24"/>
       <c r="F61" s="9"/>
     </row>
@@ -2092,6 +2095,14 @@
       <c r="D62" s="9"/>
       <c r="E62" s="24"/>
       <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C63" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="사용자페이지" sheetId="1" r:id="rId1"/>
+    <sheet name="관리자페이지" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,495 +90,431 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지게시판 &gt; 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과게시판 &gt; 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 마이페이지 &gt; 회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 마이페이지 &gt; 회원정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete &gt; deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoutAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_id &gt; find_idAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_pw &gt; find_pwAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menubar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login &gt; loginAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preModify &gt; preModifyAction &gt;  myinfoModify &gt; myinfoModifyAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register &gt; registerAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 &gt; 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">team </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 팀원찾기 &gt; 유저정보보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 페이지 공통사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 사람 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 안된사람만 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 사람만 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자만 접근 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 이전/이후 변경되는 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비번찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 자세히 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록(랭킹순+이름순 정렬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt;유저목록&gt;유저선택, 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt;유저목록&gt;결과반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberSearchAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberChoiceAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt;유저목록&gt;유저검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금 내역 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 선택 가능/불가능 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 유저를 팀원 명단에 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join &gt; joinAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 통계관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_menubar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinPopup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리 &gt; 유저정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_userPopup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 참가신청 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt; 유저목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>메인페이지 &gt; 팀원찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인페이지 &gt; 참가신청하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지게시판 &gt; 글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지게시판 &gt; 글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지게시판 &gt; 글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지게시판 &gt; 글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과게시판 &gt; 글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과게시판 &gt; 글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과게시판 &gt; 글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과게시판 &gt; 글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 마이페이지 &gt; 회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 마이페이지 &gt; 회원정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete &gt; deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logoutAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faq페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_id &gt; find_idAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_pw &gt; find_pwAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menubar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login &gt; loginAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_delete &gt; notice_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_update &gt; notice_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_write &gt; notice_writeAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preModify &gt; preModifyAction &gt;  myinfoModify &gt; myinfoModifyAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register &gt; registerAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_delete &gt; result_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_update &gt; result_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_write &gt; result_wrtieAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기게시판 &gt; 글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_write &gt; review_writeAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_update &gt; review_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_delete &gt; review_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 팀원찾기 &gt; 팀원검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">team </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teamSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 팀원찾기 &gt; 유저정보보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 페이지 공통사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 사람 접근 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 안된사람만 접근 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 사람만 접근 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자만 접근 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 이전/이후 변경되는 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비번찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 자세히 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록(랭킹순+이름순 정렬)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지게시판&gt;글 상세보기&gt;참가자명단보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt; 유저목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt;유저목록&gt;유저선택, 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt;유저목록&gt;결과반영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberChoiceAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt;유저목록&gt;유저검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금 내역 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 선택 가능/불가능 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 유저를 팀원 명단에 반영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mypage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join &gt; joinAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 회원관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 통계관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_menubar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관리자페이지 &gt; 회원관리 &gt; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_joinList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_joinPopup</t>
+    <t>메인페이지 &gt; 참가자목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기 &gt; 게시글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsDelete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1184,17 +1120,17 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -1202,20 +1138,20 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1223,23 +1159,23 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -1253,20 +1189,20 @@
         <v>3</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="14" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1277,20 +1213,20 @@
         <v>14</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -1301,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1318,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1335,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1349,266 +1285,281 @@
         <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>66</v>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>92</v>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>12</v>
       </c>
+      <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="9" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>78</v>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
+      <c r="C22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
+      <c r="C23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>23</v>
       </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1616,172 +1567,109 @@
         <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>32</v>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -1792,132 +1680,41 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="25">
         <v>37</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="25">
         <v>38</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="25">
         <v>39</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="25">
         <v>40</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="25">
         <v>41</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="25">
         <v>42</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="G46" s="9"/>
     </row>
@@ -1957,139 +1754,98 @@
       <c r="A50" s="25">
         <v>46</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="25">
         <v>47</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="D51" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="25">
         <v>48</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="E52" s="24"/>
       <c r="F52" s="9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="25">
         <v>49</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E53" s="24"/>
       <c r="F53" s="9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="25">
         <v>50</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" t="s">
-        <v>135</v>
-      </c>
       <c r="E54" s="24"/>
       <c r="F54" s="9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="25"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="25">
+        <v>51</v>
+      </c>
       <c r="E55" s="24"/>
       <c r="F55" s="9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="25"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="A56" s="25">
+        <v>52</v>
+      </c>
       <c r="F56" s="9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="25"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="25">
+        <v>53</v>
+      </c>
       <c r="E57" s="24"/>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="25"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>88</v>
+      <c r="A58" s="25">
+        <v>54</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="25"/>
+      <c r="A59" s="25">
+        <v>55</v>
+      </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="E59" s="24"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="25"/>
+      <c r="A60" s="25">
+        <v>56</v>
+      </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="E60" s="24"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="25"/>
+      <c r="A61" s="25">
+        <v>57</v>
+      </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="E61" s="24"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="25"/>
+      <c r="A62" s="25">
+        <v>58</v>
+      </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -2097,11 +1853,8 @@
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C63" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>132</v>
+      <c r="A63" s="1">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2118,12 +1871,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="9"/>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="9"/>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="사용자페이지" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="127">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 페이지 공통사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,6 +511,17 @@
   </si>
   <si>
     <t>admin_bbsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+  </si>
+  <si>
+    <t>구현완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1120,17 +1127,17 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -1141,17 +1148,20 @@
         <v>36</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1162,20 +1172,20 @@
         <v>37</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -1192,17 +1202,20 @@
         <v>18</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1216,17 +1229,20 @@
         <v>38</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -1240,10 +1256,13 @@
         <v>34</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1257,10 +1276,13 @@
         <v>35</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1274,10 +1296,13 @@
         <v>41</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1288,13 +1313,13 @@
         <v>26</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -1308,10 +1333,10 @@
         <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -1325,10 +1350,10 @@
         <v>39</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1342,10 +1367,10 @@
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -1356,16 +1381,16 @@
         <v>47</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1374,16 +1399,16 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1392,16 +1417,16 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1413,10 +1438,10 @@
         <v>46</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1425,16 +1450,16 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1443,14 +1468,14 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1458,14 +1483,14 @@
         <v>18</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1473,16 +1498,16 @@
         <v>19</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1499,10 +1524,10 @@
         <v>40</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1519,10 +1544,10 @@
         <v>21</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1536,10 +1561,10 @@
         <v>22</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1556,10 +1581,10 @@
         <v>24</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1573,10 +1598,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1598,10 +1623,10 @@
         <v>43</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1615,10 +1640,10 @@
         <v>44</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1635,10 +1660,10 @@
         <v>32</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1766,7 +1791,7 @@
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -1775,7 +1800,7 @@
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -1784,7 +1809,7 @@
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -1793,7 +1818,7 @@
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -1801,7 +1826,7 @@
         <v>52</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -1873,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1936,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
@@ -1944,176 +1969,176 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="9"/>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="9"/>
       <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1321,6 +1321,9 @@
       <c r="F12" t="s">
         <v>52</v>
       </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -1354,6 +1357,9 @@
       </c>
       <c r="F14" t="s">
         <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="사용자페이지" sheetId="1" r:id="rId1"/>
     <sheet name="관리자페이지" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보 자세히 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,15 +337,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>참가신청페이지&gt;유저목록&gt;유저선택, 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt;유저목록&gt;결과반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberSearchAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberChoiceAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt;유저목록&gt;유저검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 선택 가능/불가능 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 유저를 팀원 명단에 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 통계관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_menubar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinPopup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리 &gt; 유저정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_userPopup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 팀원찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기 &gt; 게시글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 &amp; 페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자명단목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_write &gt; join_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>참가신청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>참가신청페이지&gt;유저목록&gt;유저선택, 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt;유저목록&gt;결과반영</t>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_update &gt; join_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청페이지&gt; 유저목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자신청페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -358,170 +552,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>member_popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberChoiceAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt;유저목록&gt;유저검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금 내역 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 선택 가능/불가능 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 유저를 팀원 명단에 반영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mypage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join &gt; joinAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 회원관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 통계관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_menubar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_joinList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_joinPopup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 회원관리 &gt; 유저정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_userPopup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 참가신청 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt; 유저목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 팀원찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 참가자목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기 &gt; 게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
-  </si>
-  <si>
-    <t>구현완료</t>
+    <t>참가신청 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용 &gt; 참가자수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용 &gt; 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_delete &gt; join_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 본인만 열람 가능(Lo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가내용 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 완료한 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +656,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,6 +820,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1052,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1065,8 +1135,9 @@
     <col min="3" max="3" width="57.08203125" customWidth="1"/>
     <col min="4" max="4" width="59.58203125" customWidth="1"/>
     <col min="5" max="5" width="28.08203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="26.08203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1130,7 +1201,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
@@ -1154,7 +1225,7 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
@@ -1178,7 +1249,7 @@
         <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="12" t="s">
@@ -1208,7 +1279,7 @@
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="14" t="s">
@@ -1235,7 +1306,7 @@
         <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
@@ -1262,7 +1333,7 @@
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1282,7 +1353,10 @@
         <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1302,7 +1376,7 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1313,16 +1387,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -1336,10 +1410,13 @@
         <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -1353,13 +1430,13 @@
         <v>39</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1373,10 +1450,13 @@
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
         <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -1387,372 +1467,393 @@
         <v>47</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>90</v>
+        <v>124</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>45</v>
+        <v>134</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>67</v>
+        <v>135</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>91</v>
+        <v>136</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>18</v>
       </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>19</v>
       </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" t="s">
-        <v>42</v>
+      <c r="C31" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>29</v>
       </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>35</v>
+      <c r="E34" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="25">
-        <v>37</v>
-      </c>
+      <c r="A41" s="25"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="25">
-        <v>38</v>
-      </c>
+      <c r="A42" s="25"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="25">
-        <v>39</v>
-      </c>
+      <c r="A43" s="25"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="25">
-        <v>40</v>
-      </c>
+      <c r="A44" s="25"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="25">
-        <v>41</v>
-      </c>
+      <c r="A45" s="25"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="25">
-        <v>42</v>
-      </c>
+      <c r="A46" s="25"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="25">
-        <v>43</v>
-      </c>
+      <c r="A47" s="25"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1761,9 +1862,7 @@
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="25">
-        <v>44</v>
-      </c>
+      <c r="A48" s="25"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1772,9 +1871,7 @@
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="25">
-        <v>45</v>
-      </c>
+      <c r="A49" s="25"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1782,111 +1879,80 @@
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="25">
-        <v>46</v>
-      </c>
+      <c r="A50" s="25"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="25">
-        <v>47</v>
-      </c>
+      <c r="A51" s="25"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="25">
-        <v>48</v>
-      </c>
+      <c r="A52" s="25"/>
       <c r="E52" s="24"/>
       <c r="F52" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="25">
-        <v>49</v>
-      </c>
+      <c r="A53" s="25"/>
       <c r="E53" s="24"/>
       <c r="F53" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="25">
-        <v>50</v>
-      </c>
+      <c r="A54" s="25"/>
       <c r="E54" s="24"/>
       <c r="F54" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="25">
-        <v>51</v>
-      </c>
+      <c r="A55" s="25"/>
       <c r="E55" s="24"/>
       <c r="F55" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="25">
-        <v>52</v>
-      </c>
+      <c r="A56" s="25"/>
       <c r="F56" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="25">
-        <v>53</v>
-      </c>
+      <c r="A57" s="25"/>
       <c r="E57" s="24"/>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="25">
-        <v>54</v>
-      </c>
+      <c r="A58" s="25"/>
       <c r="E58" s="24"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="25">
-        <v>55</v>
-      </c>
+      <c r="A59" s="25"/>
       <c r="B59" s="9"/>
       <c r="E59" s="24"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="25">
-        <v>56</v>
-      </c>
+      <c r="A60" s="25"/>
       <c r="B60" s="9"/>
       <c r="E60" s="24"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="25">
-        <v>57</v>
-      </c>
+      <c r="A61" s="25"/>
       <c r="B61" s="9"/>
       <c r="E61" s="24"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="25">
-        <v>58</v>
-      </c>
+      <c r="A62" s="25"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="24"/>
       <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="1">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1904,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1919,7 +1985,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1978,19 +2044,19 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="9"/>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -2002,149 +2068,149 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="9"/>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
         <v>106</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C17" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C20" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2157,17 +2223,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="사용자페이지" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="133">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,39 +337,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>참가신청페이지&gt;유저목록&gt;유저선택, 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt;유저목록&gt;결과반영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberSearchAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberChoiceAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt;유저목록&gt;유저검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 선택 가능/불가능 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 유저를 팀원 명단에 반영</t>
+    <t>mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 통계관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_menubar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinPopup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리 &gt; 유저정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_userPopup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 팀원찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기 &gt; 게시글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 &amp; 페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자명단목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_write &gt; join_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,214 +488,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mypage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 회원관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 통계관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_menubar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_joinList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_joinPopup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 회원관리 &gt; 유저정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_userPopup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 팀원찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기 &gt; 게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
+    <t>join_update &gt; join_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자신청페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용 &gt; 참가자수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용 &gt; 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_delete &gt; join_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 본인만 열람 가능(Lo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가내용 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 완료한 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구현완료</t>
-  </si>
-  <si>
-    <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색기능 &amp; 페이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자명단목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_write &gt; join_writeAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_update &gt; join_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청페이지&gt; 유저목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자신청페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용 &gt; 참가자수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용 &gt; 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_delete &gt; join_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청자 본인만 열람 가능(Lo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가내용 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면설계 완료한 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 페이지리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,13 +774,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1124,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1142,49 +1102,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="8"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="8"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1161,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
@@ -1225,7 +1185,7 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
@@ -1249,7 +1209,7 @@
         <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="12" t="s">
@@ -1279,7 +1239,7 @@
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="14" t="s">
@@ -1306,7 +1266,7 @@
         <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
@@ -1333,7 +1293,7 @@
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1353,10 +1313,10 @@
         <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1376,7 +1336,7 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1387,7 +1347,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>72</v>
@@ -1396,7 +1356,7 @@
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -1416,7 +1376,7 @@
         <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -1436,7 +1396,7 @@
         <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1456,7 +1416,7 @@
         <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -1467,16 +1427,19 @@
         <v>47</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1485,16 +1448,19 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1502,16 +1468,19 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1519,16 +1488,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1536,16 +1505,16 @@
         <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1554,19 +1523,19 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>119</v>
+      <c r="G21" s="26" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1584,102 +1553,113 @@
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
       <c r="C23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
+        <v>5</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="9" t="s">
-        <v>89</v>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="9" t="s">
-        <v>89</v>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>22</v>
       </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
       <c r="C26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>89</v>
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1687,22 +1667,22 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1710,10 +1690,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>77</v>
@@ -1727,102 +1707,42 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>119</v>
+      <c r="G30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1970,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1984,42 +1904,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2044,19 +1964,19 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="9"/>
       <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
         <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -2068,149 +1988,149 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="9"/>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C17" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C20" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="134">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,10 @@
   </si>
   <si>
     <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 &amp; 페이징 &amp; 랭킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1089,7 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1579,7 +1583,7 @@
         <v>53</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,10 +541,6 @@
   </si>
   <si>
     <t>참가신청 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1089,7 +1085,7 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1442,9 +1438,7 @@
       <c r="F16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
@@ -1463,9 +1457,7 @@
       <c r="F17" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -1483,9 +1475,7 @@
       <c r="F18" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -1503,6 +1493,7 @@
       <c r="F19" s="9" t="s">
         <v>126</v>
       </c>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
@@ -1520,6 +1511,9 @@
       <c r="F20" s="9" t="s">
         <v>126</v>
       </c>
+      <c r="G20" s="9" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -1583,7 +1577,7 @@
         <v>53</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="사용자페이지" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,146 +405,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기 &gt; 게시글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 &amp; 페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자명단목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_write &gt; join_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_update &gt; join_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자신청페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용 &gt; 참가자수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용 &gt; 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_delete &gt; join_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 본인만 열람 가능(Lo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가내용 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 완료한 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 &amp; 페이징 &amp; 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 모임자세히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 모임자세히 &gt; 모임수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 모임자세히 &gt; 모임삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 모임등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기 &gt; 게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_bbsDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
-  </si>
-  <si>
-    <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색기능 &amp; 페이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자명단목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_write &gt; join_writeAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_update &gt; join_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자신청페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용 &gt; 참가자수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용 &gt; 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_delete &gt; join_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청자 본인만 열람 가능(Lo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가내용 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면설계 완료한 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 페이지리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색기능 &amp; 페이징 &amp; 랭킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+    <sheetView topLeftCell="D12" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1161,7 +1181,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
@@ -1185,7 +1205,7 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
@@ -1209,7 +1229,7 @@
         <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="12" t="s">
@@ -1239,7 +1259,7 @@
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="14" t="s">
@@ -1266,7 +1286,7 @@
         <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
@@ -1293,7 +1313,7 @@
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1313,10 +1333,10 @@
         <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1336,7 +1356,7 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1356,7 +1376,7 @@
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -1376,7 +1396,7 @@
         <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -1396,7 +1416,7 @@
         <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1416,7 +1436,7 @@
         <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -1427,16 +1447,16 @@
         <v>47</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -1446,16 +1466,16 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -1464,16 +1484,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -1482,16 +1502,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -1500,19 +1520,19 @@
         <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1527,13 +1547,13 @@
         <v>45</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1551,10 +1571,10 @@
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1577,7 +1597,7 @@
         <v>53</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1600,7 +1620,7 @@
         <v>53</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1640,7 +1660,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1680,7 +1700,7 @@
         <v>94</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1720,7 +1740,7 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1886,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1903,7 +1923,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2052,82 +2072,118 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="9" t="s">
-        <v>100</v>
+      <c r="C16" t="s">
+        <v>135</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="F18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="9"/>
       <c r="F19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C20" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>84</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="F20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="F21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
         <v>96</v>
       </c>
     </row>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="사용자페이지" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menubar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login &gt; loginAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>헤더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,103 +269,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>로그인 이전/이후 변경되는 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비번찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 자세히 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록(랭킹순+이름순 정렬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 통계관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 &gt; 팀원찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 이전/이후 변경되는 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비번찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 자세히 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록(랭킹순+이름순 정렬)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mypage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 회원관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 통계관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_menubar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_joinList</t>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자명단목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_write &gt; join_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_update &gt; join_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자신청페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용 &gt; 참가자수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용 &gt; 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_delete &gt; join_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 본인만 열람 가능(Lo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가내용 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 완료한 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가신청 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자 목록 &gt; 예선 조 확인하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>league_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예선조 확인하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 결과조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가신청마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinCompleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 조편성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 조확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가신청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -381,86 +509,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin_joinPopup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 회원관리 &gt; 유저정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_userPopup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 &gt; 팀원찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 보기 &gt; 게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
-  </si>
-  <si>
-    <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색기능 &amp; 페이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자명단목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_write &gt; join_writeAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
+    <t>admin_joinDtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회 &gt; 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user페이지의 join_update페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 참가내역조회 &gt;수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user페이지의 join_delete페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user페이지의 league_view페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_joinPaidAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 참가자조회 &gt; 입금완료/대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user페이지의 join_write페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user페이지의 result_view페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>league&gt;leagueAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_delete &gt; notice_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_update &gt; notice_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_write &gt; notice_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_delete &gt; result_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_update &gt; result_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_write &gt; result_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_update &gt; review_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_delete &gt; review_deleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_write &gt; review_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 본인만 열람 가능(Lo) &amp; ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,103 +601,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>join_update &gt; join_updateAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가자신청페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용 &gt; 참가자수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용 &gt; 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join_delete &gt; join_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청자 본인만 열람 가능(Lo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가내용 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면설계 완료한 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 페이지리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가신청 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색기능 &amp; 페이징 &amp; 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 모임자세히</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 모임자세히 &gt; 모임수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 모임자세히 &gt; 모임삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 모임관리(모임조회) &gt; 모임등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지 &gt; 게시판관리 &gt; 게시글 등록</t>
+    <t>Lo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,13 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,19 +818,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,69 +1138,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="57.08203125" customWidth="1"/>
+    <col min="3" max="3" width="37.9140625" customWidth="1"/>
     <col min="4" max="4" width="59.58203125" customWidth="1"/>
     <col min="5" max="5" width="28.08203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
     <col min="7" max="7" width="26.08203125" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="8"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="8"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1178,719 +1214,536 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>38</v>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>41</v>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
       <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>80</v>
+      <c r="D12" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>39</v>
+      <c r="D14" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>101</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="28"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="E19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>120</v>
+        <v>102</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>102</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>45</v>
+        <v>103</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>104</v>
-      </c>
+      <c r="F21" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" t="s">
-        <v>107</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="28"/>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="D28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="25"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="25"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="25"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="25"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="25"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="25"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="25"/>
+      <c r="F33" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="24"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="24"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="24"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="24"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="24"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="25"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="24"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="24"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="25"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="24"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="24"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="25"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="25"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="25"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="25"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="25"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="25"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="25"/>
-      <c r="F56" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="25"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="25"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="25"/>
-      <c r="B59" s="9"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="25"/>
-      <c r="B60" s="9"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="25"/>
-      <c r="B61" s="9"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="25"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="9"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1906,58 +1759,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="13.9140625" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
@@ -1979,212 +1833,358 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="9"/>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
+      <c r="C6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="9"/>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
+      <c r="C9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>96</v>
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
         <v>129</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
+      <c r="F14" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
         <v>132</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D21" s="9"/>
+      <c r="F21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="9"/>
+      <c r="F26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="9"/>
+      <c r="F27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="9"/>
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="F36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
         <v>136</v>
       </c>
-      <c r="F16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="9" t="s">
+      <c r="F37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="F19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="F20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="F22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F26" t="s">
-        <v>96</v>
+      <c r="F38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C41" s="9"/>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C42" s="9"/>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="사용자페이지" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="159">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin_bbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin_join</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자페이지 &gt; 게시판관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자페이지 &gt; 통계관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notice_delete &gt; notice_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>notice_update &gt; notice_updateAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,10 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result_delete &gt; result_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result_update &gt; result_updateAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -585,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>review_delete &gt; review_deleteAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>review_write &gt; review_writeAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,6 +582,74 @@
   </si>
   <si>
     <t>Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsDelAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsReview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(공지 조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(공지 조회) &gt; 공지 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(공지 조회) &gt; 공지 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(결과 조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(결과 조회) &gt; 결과 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(결과 조회) &gt; 모임선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(결과 조회) &gt; 모임선택 &gt; 결과 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(공지 조회) &gt; 공지 상세보기 &gt; 공지 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(결과 조회) &gt; 결과 상세보기 &gt; 결과 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(모든 게시판 공통) &gt; 글 삭제/복구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,18 +872,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1158,49 +1206,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="8"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="8"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="26"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1265,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="18" t="s">
@@ -1247,10 +1295,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1274,7 +1322,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1295,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1316,7 +1364,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -1330,13 +1378,13 @@
         <v>35</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1347,7 +1395,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -1358,10 +1406,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
@@ -1375,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
         <v>50</v>
@@ -1390,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
@@ -1405,105 +1453,105 @@
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28"/>
-      <c r="E16" s="29"/>
+    <row r="16" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="26"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C20" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C21" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="F21" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
         <v>51</v>
@@ -1516,33 +1564,33 @@
         <v>45</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="28"/>
-      <c r="E25" s="29"/>
+    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="26"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
@@ -1555,7 +1603,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
@@ -1573,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
@@ -1588,10 +1636,10 @@
         <v>22</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -1606,7 +1654,7 @@
         <v>24</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
         <v>51</v>
@@ -1621,7 +1669,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
         <v>50</v>
@@ -1639,10 +1687,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="9"/>
     </row>
@@ -1654,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
         <v>50</v>
@@ -1672,7 +1720,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>51</v>
@@ -1761,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1776,42 +1824,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="A1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="26"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1836,10 +1884,10 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1851,340 +1899,375 @@
         <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
         <v>126</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C13" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F18" s="28"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D21" s="9"/>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="9"/>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="9"/>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="9"/>
       <c r="F31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F32" s="28"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C33" s="9" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C36" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C37" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C38" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C39" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C41" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C41" s="9"/>
-      <c r="D41" t="s">
-        <v>140</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C42" s="9"/>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F46" s="28"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C47" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="174">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,6 +650,66 @@
   </si>
   <si>
     <t>관리자페이지 &gt; 게시판관리(모든 게시판 공통) &gt; 글 삭제/복구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(후기 조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(후기 조회) &gt; 후기 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(후기 조회) &gt; 모임선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(후기 조회) &gt; 모임선택 &gt; 후기 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(후기 조회) &gt; 후기 상세보기 &gt; 후기 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_bbsFaq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq_write &gt; faq_writeAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq_update &gt; faq_updateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(faq 조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(faq 조회) &gt; faq 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(faq 조회) &gt; 모임선택 &gt; faq 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 게시판관리(faq 조회) &gt; faq 상세보기 &gt; faq 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1807,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2221,52 +2281,126 @@
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="D42" t="s">
         <v>145</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C43" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="D43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C44" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D44" t="s">
+      <c r="F45" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C46" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F46" s="26"/>
+      <c r="F46" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C47" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C48" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C49" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C50" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C53" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/어쩌다리그 사이트맵.xlsx
+++ b/어쩌다리그 사이트맵.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="181">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,10 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user페이지의 league_view페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin_joinPaidAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,10 +537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user페이지의 result_view페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>league&gt;leagueAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +702,42 @@
   </si>
   <si>
     <t>관리자페이지 &gt; 게시판관리(faq 조회) &gt; faq 상세보기 &gt; faq 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>league_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin페이지의 result_view페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_userDelAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_userDtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_userUpd &gt; admin_userUpdAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리 &gt; 회원삭제/복구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리 &gt; 회원정보 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 &gt; 회원관리 &gt; 회원정보 상세보기 &gt; 회원정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1554,7 +1582,7 @@
         <v>93</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -1583,7 +1611,7 @@
         <v>96</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -1598,7 +1626,7 @@
         <v>104</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G21" s="9"/>
     </row>
@@ -1644,7 +1672,7 @@
         <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -1699,7 +1727,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -1867,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2030,7 +2058,7 @@
         <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>86</v>
@@ -2041,21 +2069,18 @@
         <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>86</v>
@@ -2072,7 +2097,7 @@
         <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -2080,16 +2105,16 @@
         <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>115</v>
       </c>
@@ -2100,10 +2125,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C19" s="9" t="s">
         <v>77</v>
       </c>
@@ -2114,293 +2139,262 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D21" s="9"/>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C21" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C22" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="9"/>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="9"/>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>145</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="9"/>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F32" s="26"/>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C32" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
         <v>143</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C34" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C35" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C36" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C37" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C38" s="9" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C39" s="9" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C40" s="9" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C41" s="9" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C42" s="9" t="s">
-        <v>161</v>
+      <c r="C42" t="s">
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C43" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="43" spans="3:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C44" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" t="s">
-        <v>159</v>
+        <v>78</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C45" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C46" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C47" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D47" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C48" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C49" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C50" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" t="s">
-        <v>169</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F52" s="26"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C53" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="1" t="s">
         <v>86</v>
       </c>
     </row>
